--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0419B7C-FFDB-4311-A7FA-8B82B942EFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7294CF-5D58-42F4-944C-F3207839888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
     <t>01-04-2025</t>
   </si>
   <si>
-    <t>30-07-2025</t>
+    <t>30-08-2025</t>
   </si>
 </sst>
 </file>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EA1B80-280E-4D26-AF18-E86A7C091F1D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DCC597-3277-451D-BCC4-5E31042A1E67}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1951,15 +1951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -2214,6 +2205,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2226,14 +2226,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7D6A-E6F4-49F1-91EA-99C5773FBF86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2252,6 +2244,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
   <ds:schemaRefs>

--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7294CF-5D58-42F4-944C-F3207839888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EFDC34-F646-4DE1-953E-0291D8997C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
     <t>01-04-2025</t>
   </si>
   <si>
-    <t>30-08-2025</t>
+    <t>30-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0881AA-E4AA-413A-B22A-854F77D68309}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,6 +1951,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -2205,15 +2214,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2226,6 +2226,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7D6A-E6F4-49F1-91EA-99C5773FBF86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2244,14 +2252,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
   <ds:schemaRefs>

--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EFDC34-F646-4DE1-953E-0291D8997C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2272FC1-60AB-4587-8F89-57B3F9FB2836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
     <t>01-04-2025</t>
   </si>
   <si>
-    <t>30-09-2025</t>
+    <t>30-10-2025</t>
   </si>
 </sst>
 </file>
@@ -1951,15 +1951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -2214,6 +2205,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2226,14 +2226,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7D6A-E6F4-49F1-91EA-99C5773FBF86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2252,6 +2244,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
   <ds:schemaRefs>

--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2272FC1-60AB-4587-8F89-57B3F9FB2836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D65C7A3-7C2B-40BA-9DA4-DD8F3EA36434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
     <t>01-04-2025</t>
   </si>
   <si>
-    <t>30-10-2025</t>
+    <t>30-10-2026</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B83B4F-716C-49F9-8C91-DEDA4632D6F0}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DCC597-3277-451D-BCC4-5E31042A1E67}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1951,6 +1951,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -2205,15 +2214,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2226,6 +2226,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7D6A-E6F4-49F1-91EA-99C5773FBF86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2244,14 +2252,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
   <ds:schemaRefs>

--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D65C7A3-7C2B-40BA-9DA4-DD8F3EA36434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1999D0-E22F-4735-89A7-1390DCC84997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="143">
   <si>
     <t>username</t>
   </si>
@@ -56,9 +56,6 @@
     <t>manoj.auto</t>
   </si>
   <si>
-    <t>Manoj@2023</t>
-  </si>
-  <si>
     <t>prerelease.auto</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>788310</t>
   </si>
   <si>
-    <t>Manoj@2024</t>
-  </si>
-  <si>
     <t>01-01-2025</t>
   </si>
   <si>
@@ -477,6 +471,9 @@
   </si>
   <si>
     <t>30-10-2026</t>
+  </si>
+  <si>
+    <t>Manoj@2025</t>
   </si>
 </sst>
 </file>
@@ -824,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,15 +844,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -888,25 +885,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
-        <v>126</v>
-      </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -917,19 +914,19 @@
         <v>34803</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,19 +937,19 @@
         <v>34803</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,19 +960,19 @@
         <v>34803</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
         <v>116</v>
       </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,19 +983,19 @@
         <v>34803</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
         <v>116</v>
       </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1021,237 +1018,237 @@
   <sheetData>
     <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>51</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y2" s="2">
         <v>0</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AI2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1280,124 +1277,124 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>101</v>
-      </c>
       <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
         <v>103</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>104</v>
       </c>
-      <c r="P1" t="s">
-        <v>105</v>
-      </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
         <v>94</v>
       </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" t="s">
         <v>94</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B83B4F-716C-49F9-8C91-DEDA4632D6F0}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -1427,124 +1424,124 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>101</v>
-      </c>
       <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
         <v>103</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>104</v>
       </c>
-      <c r="P1" t="s">
-        <v>105</v>
-      </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
         <v>94</v>
       </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" t="s">
         <v>94</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1573,124 +1570,124 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>101</v>
-      </c>
       <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
         <v>103</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>104</v>
       </c>
-      <c r="P1" t="s">
-        <v>105</v>
-      </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
         <v>94</v>
       </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" t="s">
         <v>94</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1717,36 +1714,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1773,36 +1770,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1829,36 +1826,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1889,60 +1886,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1951,15 +1948,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -2214,6 +2202,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2226,14 +2223,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7D6A-E6F4-49F1-91EA-99C5773FBF86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2252,6 +2241,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
   <ds:schemaRefs>
